--- a/src/模板文件/建筑属性.xlsx
+++ b/src/模板文件/建筑属性.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genius\Desktop\GIS实践\GIS-Practice\src\模板文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90D44BD-8225-4484-BFEE-9DDC94C09952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA79C3F-BB6E-4A4B-9DAF-162E0DA12590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3344" uniqueCount="226">
   <si>
     <t>名称</t>
   </si>
@@ -1333,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0DC5E9-3AD8-474F-A348-7044CAFAA1E1}">
-  <dimension ref="A1:G843"/>
+  <dimension ref="A1:G844"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A820" workbookViewId="0">
+      <selection activeCell="F849" sqref="F849"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -20653,6 +20653,29 @@
         <v>35</v>
       </c>
     </row>
+    <row r="844" spans="1:7" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A844" s="3">
+        <v>22108</v>
+      </c>
+      <c r="B844" s="3">
+        <v>2</v>
+      </c>
+      <c r="C844" s="3">
+        <v>4</v>
+      </c>
+      <c r="D844" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E844" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F844" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G844" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G842">
     <sortCondition ref="B2:B842"/>
@@ -20660,5 +20683,6 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/模板文件/建筑属性.xlsx
+++ b/src/模板文件/建筑属性.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genius\Desktop\GIS实践\GIS-Practice\src\模板文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05E33BC-1D0F-471A-99EB-4A91F1B1A024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E63746A-DDC6-42FE-8031-8CE81D53481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="2415" windowWidth="11707" windowHeight="9120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="幢信息" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3330" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="223">
   <si>
     <t>名称</t>
   </si>
@@ -692,12 +692,16 @@
   <si>
     <t>校徽</t>
   </si>
+  <si>
+    <t>台阶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -751,6 +755,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -839,7 +851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -863,6 +875,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1283,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G846"/>
+  <dimension ref="A1:G1325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A832" workbookViewId="0">
-      <selection activeCell="F850" sqref="F850"/>
+    <sheetView tabSelected="1" topLeftCell="A1027" workbookViewId="0">
+      <selection activeCell="E1051" sqref="E1051"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -20626,6 +20641,4083 @@
         <v>220</v>
       </c>
     </row>
+    <row r="847" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A847">
+        <v>330001</v>
+      </c>
+      <c r="B847">
+        <v>3</v>
+      </c>
+      <c r="C847">
+        <v>4</v>
+      </c>
+      <c r="D847" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A848">
+        <v>330002</v>
+      </c>
+      <c r="B848">
+        <v>3</v>
+      </c>
+      <c r="C848">
+        <v>4</v>
+      </c>
+      <c r="D848" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A849">
+        <v>330003</v>
+      </c>
+      <c r="B849">
+        <v>3</v>
+      </c>
+      <c r="C849">
+        <v>4</v>
+      </c>
+      <c r="D849" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A850">
+        <v>330004</v>
+      </c>
+      <c r="B850">
+        <v>3</v>
+      </c>
+      <c r="C850">
+        <v>4</v>
+      </c>
+      <c r="D850" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A851">
+        <v>330005</v>
+      </c>
+      <c r="B851">
+        <v>3</v>
+      </c>
+      <c r="C851">
+        <v>4</v>
+      </c>
+      <c r="D851" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A852">
+        <v>330006</v>
+      </c>
+      <c r="B852">
+        <v>3</v>
+      </c>
+      <c r="C852">
+        <v>4</v>
+      </c>
+      <c r="D852" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A853">
+        <v>330007</v>
+      </c>
+      <c r="B853">
+        <v>3</v>
+      </c>
+      <c r="C853">
+        <v>4</v>
+      </c>
+      <c r="D853" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A854">
+        <v>330008</v>
+      </c>
+      <c r="B854">
+        <v>3</v>
+      </c>
+      <c r="C854">
+        <v>4</v>
+      </c>
+      <c r="D854" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A855">
+        <v>330009</v>
+      </c>
+      <c r="B855">
+        <v>3</v>
+      </c>
+      <c r="C855">
+        <v>4</v>
+      </c>
+      <c r="D855" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A856">
+        <v>3300010</v>
+      </c>
+      <c r="B856">
+        <v>3</v>
+      </c>
+      <c r="C856">
+        <v>4</v>
+      </c>
+      <c r="D856" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A857">
+        <v>3300011</v>
+      </c>
+      <c r="B857">
+        <v>3</v>
+      </c>
+      <c r="C857">
+        <v>4</v>
+      </c>
+      <c r="D857" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A858">
+        <v>3300012</v>
+      </c>
+      <c r="B858">
+        <v>3</v>
+      </c>
+      <c r="C858">
+        <v>4</v>
+      </c>
+      <c r="D858" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A859">
+        <v>3300013</v>
+      </c>
+      <c r="B859">
+        <v>3</v>
+      </c>
+      <c r="C859">
+        <v>4</v>
+      </c>
+      <c r="D859" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A860">
+        <v>3300014</v>
+      </c>
+      <c r="B860">
+        <v>3</v>
+      </c>
+      <c r="C860">
+        <v>4</v>
+      </c>
+      <c r="D860" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A861">
+        <v>3300015</v>
+      </c>
+      <c r="B861">
+        <v>3</v>
+      </c>
+      <c r="C861">
+        <v>4</v>
+      </c>
+      <c r="D861" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A862">
+        <v>3300016</v>
+      </c>
+      <c r="B862">
+        <v>3</v>
+      </c>
+      <c r="C862">
+        <v>4</v>
+      </c>
+      <c r="D862" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A863">
+        <v>3300017</v>
+      </c>
+      <c r="B863">
+        <v>3</v>
+      </c>
+      <c r="C863">
+        <v>4</v>
+      </c>
+      <c r="D863" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A864">
+        <v>3300018</v>
+      </c>
+      <c r="B864">
+        <v>3</v>
+      </c>
+      <c r="C864">
+        <v>4</v>
+      </c>
+      <c r="D864" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A865">
+        <v>3300019</v>
+      </c>
+      <c r="B865">
+        <v>3</v>
+      </c>
+      <c r="C865">
+        <v>4</v>
+      </c>
+      <c r="D865" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A866">
+        <v>3300020</v>
+      </c>
+      <c r="B866">
+        <v>3</v>
+      </c>
+      <c r="C866">
+        <v>4</v>
+      </c>
+      <c r="D866" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A867">
+        <v>3300021</v>
+      </c>
+      <c r="B867">
+        <v>3</v>
+      </c>
+      <c r="C867">
+        <v>4</v>
+      </c>
+      <c r="D867" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A868">
+        <v>3300022</v>
+      </c>
+      <c r="B868">
+        <v>3</v>
+      </c>
+      <c r="C868">
+        <v>4</v>
+      </c>
+      <c r="D868" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A869">
+        <v>3300023</v>
+      </c>
+      <c r="B869">
+        <v>3</v>
+      </c>
+      <c r="C869">
+        <v>4</v>
+      </c>
+      <c r="D869" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A870">
+        <v>3300024</v>
+      </c>
+      <c r="B870">
+        <v>3</v>
+      </c>
+      <c r="C870">
+        <v>4</v>
+      </c>
+      <c r="D870" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A871">
+        <v>3300025</v>
+      </c>
+      <c r="B871">
+        <v>3</v>
+      </c>
+      <c r="C871">
+        <v>4</v>
+      </c>
+      <c r="D871" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A872">
+        <v>3300026</v>
+      </c>
+      <c r="B872">
+        <v>3</v>
+      </c>
+      <c r="C872">
+        <v>4</v>
+      </c>
+      <c r="D872" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A873">
+        <v>3300027</v>
+      </c>
+      <c r="B873">
+        <v>3</v>
+      </c>
+      <c r="C873">
+        <v>4</v>
+      </c>
+      <c r="D873" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A874">
+        <v>3300028</v>
+      </c>
+      <c r="B874">
+        <v>3</v>
+      </c>
+      <c r="C874">
+        <v>4</v>
+      </c>
+      <c r="D874" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A875">
+        <v>3300029</v>
+      </c>
+      <c r="B875">
+        <v>3</v>
+      </c>
+      <c r="C875">
+        <v>4</v>
+      </c>
+      <c r="D875" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A876">
+        <v>3300030</v>
+      </c>
+      <c r="B876">
+        <v>3</v>
+      </c>
+      <c r="C876">
+        <v>4</v>
+      </c>
+      <c r="D876" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A877">
+        <v>3300031</v>
+      </c>
+      <c r="B877">
+        <v>3</v>
+      </c>
+      <c r="C877">
+        <v>4</v>
+      </c>
+      <c r="D877" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A878">
+        <v>3300032</v>
+      </c>
+      <c r="B878">
+        <v>3</v>
+      </c>
+      <c r="C878">
+        <v>4</v>
+      </c>
+      <c r="D878" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A879">
+        <v>3300033</v>
+      </c>
+      <c r="B879">
+        <v>3</v>
+      </c>
+      <c r="C879">
+        <v>4</v>
+      </c>
+      <c r="D879" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A880">
+        <v>3300034</v>
+      </c>
+      <c r="B880">
+        <v>3</v>
+      </c>
+      <c r="C880">
+        <v>4</v>
+      </c>
+      <c r="D880" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A881">
+        <v>3300035</v>
+      </c>
+      <c r="B881">
+        <v>3</v>
+      </c>
+      <c r="C881">
+        <v>4</v>
+      </c>
+      <c r="D881" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A882">
+        <v>3300036</v>
+      </c>
+      <c r="B882">
+        <v>3</v>
+      </c>
+      <c r="C882">
+        <v>4</v>
+      </c>
+      <c r="D882" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A883">
+        <v>3300037</v>
+      </c>
+      <c r="B883">
+        <v>3</v>
+      </c>
+      <c r="C883">
+        <v>4</v>
+      </c>
+      <c r="D883" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A884">
+        <v>3300038</v>
+      </c>
+      <c r="B884">
+        <v>3</v>
+      </c>
+      <c r="C884">
+        <v>4</v>
+      </c>
+      <c r="D884" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A885">
+        <v>3300039</v>
+      </c>
+      <c r="B885">
+        <v>3</v>
+      </c>
+      <c r="C885">
+        <v>4</v>
+      </c>
+      <c r="D885" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A886">
+        <v>3300040</v>
+      </c>
+      <c r="B886">
+        <v>3</v>
+      </c>
+      <c r="C886">
+        <v>4</v>
+      </c>
+      <c r="D886" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A887">
+        <v>3300041</v>
+      </c>
+      <c r="B887">
+        <v>3</v>
+      </c>
+      <c r="C887">
+        <v>4</v>
+      </c>
+      <c r="D887" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A888">
+        <v>3300042</v>
+      </c>
+      <c r="B888">
+        <v>3</v>
+      </c>
+      <c r="C888">
+        <v>4</v>
+      </c>
+      <c r="D888" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A889">
+        <v>3300043</v>
+      </c>
+      <c r="B889">
+        <v>3</v>
+      </c>
+      <c r="C889">
+        <v>4</v>
+      </c>
+      <c r="D889" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A890">
+        <v>3300044</v>
+      </c>
+      <c r="B890">
+        <v>3</v>
+      </c>
+      <c r="C890">
+        <v>4</v>
+      </c>
+      <c r="D890" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A891">
+        <v>3300045</v>
+      </c>
+      <c r="B891">
+        <v>3</v>
+      </c>
+      <c r="C891">
+        <v>4</v>
+      </c>
+      <c r="D891" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A892">
+        <v>3300046</v>
+      </c>
+      <c r="B892">
+        <v>3</v>
+      </c>
+      <c r="C892">
+        <v>4</v>
+      </c>
+      <c r="D892" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A893">
+        <v>3300047</v>
+      </c>
+      <c r="B893">
+        <v>3</v>
+      </c>
+      <c r="C893">
+        <v>4</v>
+      </c>
+      <c r="D893" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A894">
+        <v>3300048</v>
+      </c>
+      <c r="B894">
+        <v>3</v>
+      </c>
+      <c r="C894">
+        <v>4</v>
+      </c>
+      <c r="D894" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A895">
+        <v>3300049</v>
+      </c>
+      <c r="B895">
+        <v>3</v>
+      </c>
+      <c r="C895">
+        <v>4</v>
+      </c>
+      <c r="D895" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A896">
+        <v>3300050</v>
+      </c>
+      <c r="B896">
+        <v>3</v>
+      </c>
+      <c r="C896">
+        <v>4</v>
+      </c>
+      <c r="D896" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A897">
+        <v>3300051</v>
+      </c>
+      <c r="B897">
+        <v>3</v>
+      </c>
+      <c r="C897">
+        <v>4</v>
+      </c>
+      <c r="D897" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A898">
+        <v>3300052</v>
+      </c>
+      <c r="B898">
+        <v>3</v>
+      </c>
+      <c r="C898">
+        <v>4</v>
+      </c>
+      <c r="D898" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A899">
+        <v>3300053</v>
+      </c>
+      <c r="B899">
+        <v>3</v>
+      </c>
+      <c r="C899">
+        <v>4</v>
+      </c>
+      <c r="D899" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A900">
+        <v>3300054</v>
+      </c>
+      <c r="B900">
+        <v>3</v>
+      </c>
+      <c r="C900">
+        <v>4</v>
+      </c>
+      <c r="D900" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A901">
+        <v>3300055</v>
+      </c>
+      <c r="B901">
+        <v>3</v>
+      </c>
+      <c r="C901">
+        <v>4</v>
+      </c>
+      <c r="D901" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A902">
+        <v>3300056</v>
+      </c>
+      <c r="B902">
+        <v>3</v>
+      </c>
+      <c r="C902">
+        <v>4</v>
+      </c>
+      <c r="D902" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A903">
+        <v>3300057</v>
+      </c>
+      <c r="B903">
+        <v>3</v>
+      </c>
+      <c r="C903">
+        <v>4</v>
+      </c>
+      <c r="D903" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A904">
+        <v>3300058</v>
+      </c>
+      <c r="B904">
+        <v>3</v>
+      </c>
+      <c r="C904">
+        <v>4</v>
+      </c>
+      <c r="D904" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A905">
+        <v>3300059</v>
+      </c>
+      <c r="B905">
+        <v>3</v>
+      </c>
+      <c r="C905">
+        <v>4</v>
+      </c>
+      <c r="D905" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A906">
+        <v>3300060</v>
+      </c>
+      <c r="B906">
+        <v>3</v>
+      </c>
+      <c r="C906">
+        <v>4</v>
+      </c>
+      <c r="D906" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A907">
+        <v>3300061</v>
+      </c>
+      <c r="B907">
+        <v>3</v>
+      </c>
+      <c r="C907">
+        <v>4</v>
+      </c>
+      <c r="D907" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A908">
+        <v>3300062</v>
+      </c>
+      <c r="B908">
+        <v>3</v>
+      </c>
+      <c r="C908">
+        <v>4</v>
+      </c>
+      <c r="D908" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A909">
+        <v>3300063</v>
+      </c>
+      <c r="B909">
+        <v>3</v>
+      </c>
+      <c r="C909">
+        <v>4</v>
+      </c>
+      <c r="D909" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A910">
+        <v>3300064</v>
+      </c>
+      <c r="B910">
+        <v>3</v>
+      </c>
+      <c r="C910">
+        <v>4</v>
+      </c>
+      <c r="D910" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A911">
+        <v>3300065</v>
+      </c>
+      <c r="B911">
+        <v>3</v>
+      </c>
+      <c r="C911">
+        <v>4</v>
+      </c>
+      <c r="D911" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A912">
+        <v>3300066</v>
+      </c>
+      <c r="B912">
+        <v>3</v>
+      </c>
+      <c r="C912">
+        <v>4</v>
+      </c>
+      <c r="D912" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A913">
+        <v>3300067</v>
+      </c>
+      <c r="B913">
+        <v>3</v>
+      </c>
+      <c r="C913">
+        <v>4</v>
+      </c>
+      <c r="D913" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A914">
+        <v>3300068</v>
+      </c>
+      <c r="B914">
+        <v>3</v>
+      </c>
+      <c r="C914">
+        <v>4</v>
+      </c>
+      <c r="D914" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A915">
+        <v>3300069</v>
+      </c>
+      <c r="B915">
+        <v>3</v>
+      </c>
+      <c r="C915">
+        <v>4</v>
+      </c>
+      <c r="D915" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A916">
+        <v>3300070</v>
+      </c>
+      <c r="B916">
+        <v>3</v>
+      </c>
+      <c r="C916">
+        <v>4</v>
+      </c>
+      <c r="D916" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A917">
+        <v>3300071</v>
+      </c>
+      <c r="B917">
+        <v>3</v>
+      </c>
+      <c r="C917">
+        <v>4</v>
+      </c>
+      <c r="D917" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A918">
+        <v>3300072</v>
+      </c>
+      <c r="B918">
+        <v>3</v>
+      </c>
+      <c r="C918">
+        <v>4</v>
+      </c>
+      <c r="D918" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A919">
+        <v>3300073</v>
+      </c>
+      <c r="B919">
+        <v>3</v>
+      </c>
+      <c r="C919">
+        <v>4</v>
+      </c>
+      <c r="D919" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A920">
+        <v>3300074</v>
+      </c>
+      <c r="B920">
+        <v>3</v>
+      </c>
+      <c r="C920">
+        <v>4</v>
+      </c>
+      <c r="D920" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A921">
+        <v>3300075</v>
+      </c>
+      <c r="B921">
+        <v>3</v>
+      </c>
+      <c r="C921">
+        <v>4</v>
+      </c>
+      <c r="D921" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A922">
+        <v>3300076</v>
+      </c>
+      <c r="B922">
+        <v>3</v>
+      </c>
+      <c r="C922">
+        <v>4</v>
+      </c>
+      <c r="D922" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A923">
+        <v>3300077</v>
+      </c>
+      <c r="B923">
+        <v>3</v>
+      </c>
+      <c r="C923">
+        <v>4</v>
+      </c>
+      <c r="D923" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A924">
+        <v>3300078</v>
+      </c>
+      <c r="B924">
+        <v>3</v>
+      </c>
+      <c r="C924">
+        <v>4</v>
+      </c>
+      <c r="D924" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A925">
+        <v>3300079</v>
+      </c>
+      <c r="B925">
+        <v>3</v>
+      </c>
+      <c r="C925">
+        <v>4</v>
+      </c>
+      <c r="D925" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A926">
+        <v>3300080</v>
+      </c>
+      <c r="B926">
+        <v>3</v>
+      </c>
+      <c r="C926">
+        <v>4</v>
+      </c>
+      <c r="D926" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A927">
+        <v>3300081</v>
+      </c>
+      <c r="B927">
+        <v>3</v>
+      </c>
+      <c r="C927">
+        <v>4</v>
+      </c>
+      <c r="D927" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A928">
+        <v>3300082</v>
+      </c>
+      <c r="B928">
+        <v>3</v>
+      </c>
+      <c r="C928">
+        <v>4</v>
+      </c>
+      <c r="D928" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A929">
+        <v>3300083</v>
+      </c>
+      <c r="B929">
+        <v>3</v>
+      </c>
+      <c r="C929">
+        <v>4</v>
+      </c>
+      <c r="D929" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A930">
+        <v>3300084</v>
+      </c>
+      <c r="B930">
+        <v>3</v>
+      </c>
+      <c r="C930">
+        <v>4</v>
+      </c>
+      <c r="D930" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A931">
+        <v>3300085</v>
+      </c>
+      <c r="B931">
+        <v>3</v>
+      </c>
+      <c r="C931">
+        <v>4</v>
+      </c>
+      <c r="D931" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A932">
+        <v>3300086</v>
+      </c>
+      <c r="B932">
+        <v>3</v>
+      </c>
+      <c r="C932">
+        <v>4</v>
+      </c>
+      <c r="D932" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A933">
+        <v>3300087</v>
+      </c>
+      <c r="B933">
+        <v>3</v>
+      </c>
+      <c r="C933">
+        <v>4</v>
+      </c>
+      <c r="D933" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A934">
+        <v>3300088</v>
+      </c>
+      <c r="B934">
+        <v>3</v>
+      </c>
+      <c r="C934">
+        <v>4</v>
+      </c>
+      <c r="D934" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A935">
+        <v>3300089</v>
+      </c>
+      <c r="B935">
+        <v>3</v>
+      </c>
+      <c r="C935">
+        <v>4</v>
+      </c>
+      <c r="D935" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A936">
+        <v>3300090</v>
+      </c>
+      <c r="B936">
+        <v>3</v>
+      </c>
+      <c r="C936">
+        <v>4</v>
+      </c>
+      <c r="D936" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A937">
+        <v>3300091</v>
+      </c>
+      <c r="B937">
+        <v>3</v>
+      </c>
+      <c r="C937">
+        <v>4</v>
+      </c>
+      <c r="D937" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A938">
+        <v>3300092</v>
+      </c>
+      <c r="B938">
+        <v>3</v>
+      </c>
+      <c r="C938">
+        <v>4</v>
+      </c>
+      <c r="D938" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A939">
+        <v>3300093</v>
+      </c>
+      <c r="B939">
+        <v>3</v>
+      </c>
+      <c r="C939">
+        <v>4</v>
+      </c>
+      <c r="D939" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A940">
+        <v>3300094</v>
+      </c>
+      <c r="B940">
+        <v>3</v>
+      </c>
+      <c r="C940">
+        <v>4</v>
+      </c>
+      <c r="D940" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A941">
+        <v>3300095</v>
+      </c>
+      <c r="B941">
+        <v>3</v>
+      </c>
+      <c r="C941">
+        <v>4</v>
+      </c>
+      <c r="D941" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A942">
+        <v>3300096</v>
+      </c>
+      <c r="B942">
+        <v>3</v>
+      </c>
+      <c r="C942">
+        <v>4</v>
+      </c>
+      <c r="D942" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A943">
+        <v>3300097</v>
+      </c>
+      <c r="B943">
+        <v>3</v>
+      </c>
+      <c r="C943">
+        <v>4</v>
+      </c>
+      <c r="D943" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A944">
+        <v>3300098</v>
+      </c>
+      <c r="B944">
+        <v>3</v>
+      </c>
+      <c r="C944">
+        <v>4</v>
+      </c>
+      <c r="D944" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A945">
+        <v>3300099</v>
+      </c>
+      <c r="B945">
+        <v>3</v>
+      </c>
+      <c r="C945">
+        <v>4</v>
+      </c>
+      <c r="D945" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A946">
+        <v>33000100</v>
+      </c>
+      <c r="B946">
+        <v>3</v>
+      </c>
+      <c r="C946">
+        <v>4</v>
+      </c>
+      <c r="D946" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A947">
+        <v>33000101</v>
+      </c>
+      <c r="B947">
+        <v>3</v>
+      </c>
+      <c r="C947">
+        <v>4</v>
+      </c>
+      <c r="D947" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A948">
+        <v>33000102</v>
+      </c>
+      <c r="B948">
+        <v>3</v>
+      </c>
+      <c r="C948">
+        <v>4</v>
+      </c>
+      <c r="D948" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A949">
+        <v>33000103</v>
+      </c>
+      <c r="B949">
+        <v>3</v>
+      </c>
+      <c r="C949">
+        <v>4</v>
+      </c>
+      <c r="D949" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A950">
+        <v>33000104</v>
+      </c>
+      <c r="B950">
+        <v>3</v>
+      </c>
+      <c r="C950">
+        <v>4</v>
+      </c>
+      <c r="D950" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A951">
+        <v>33000105</v>
+      </c>
+      <c r="B951">
+        <v>3</v>
+      </c>
+      <c r="C951">
+        <v>4</v>
+      </c>
+      <c r="D951" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A952">
+        <v>33000106</v>
+      </c>
+      <c r="B952">
+        <v>3</v>
+      </c>
+      <c r="C952">
+        <v>4</v>
+      </c>
+      <c r="D952" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A953">
+        <v>33000107</v>
+      </c>
+      <c r="B953">
+        <v>3</v>
+      </c>
+      <c r="C953">
+        <v>4</v>
+      </c>
+      <c r="D953" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A954">
+        <v>33000108</v>
+      </c>
+      <c r="B954">
+        <v>3</v>
+      </c>
+      <c r="C954">
+        <v>4</v>
+      </c>
+      <c r="D954" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A955">
+        <v>33000109</v>
+      </c>
+      <c r="B955">
+        <v>3</v>
+      </c>
+      <c r="C955">
+        <v>4</v>
+      </c>
+      <c r="D955" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A956">
+        <v>33000110</v>
+      </c>
+      <c r="B956">
+        <v>3</v>
+      </c>
+      <c r="C956">
+        <v>4</v>
+      </c>
+      <c r="D956" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A957">
+        <v>33000111</v>
+      </c>
+      <c r="B957">
+        <v>3</v>
+      </c>
+      <c r="C957">
+        <v>4</v>
+      </c>
+      <c r="D957" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A958">
+        <v>33000112</v>
+      </c>
+      <c r="B958">
+        <v>3</v>
+      </c>
+      <c r="C958">
+        <v>4</v>
+      </c>
+      <c r="D958" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A959">
+        <v>33000113</v>
+      </c>
+      <c r="B959">
+        <v>3</v>
+      </c>
+      <c r="C959">
+        <v>4</v>
+      </c>
+      <c r="D959" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A960">
+        <v>33000114</v>
+      </c>
+      <c r="B960">
+        <v>3</v>
+      </c>
+      <c r="C960">
+        <v>4</v>
+      </c>
+      <c r="D960" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A961">
+        <v>33000115</v>
+      </c>
+      <c r="B961">
+        <v>3</v>
+      </c>
+      <c r="C961">
+        <v>4</v>
+      </c>
+      <c r="D961" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A962">
+        <v>33000116</v>
+      </c>
+      <c r="B962">
+        <v>3</v>
+      </c>
+      <c r="C962">
+        <v>4</v>
+      </c>
+      <c r="D962" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A963">
+        <v>33000117</v>
+      </c>
+      <c r="B963">
+        <v>3</v>
+      </c>
+      <c r="C963">
+        <v>4</v>
+      </c>
+      <c r="D963" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A964">
+        <v>33000118</v>
+      </c>
+      <c r="B964">
+        <v>3</v>
+      </c>
+      <c r="C964">
+        <v>4</v>
+      </c>
+      <c r="D964" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A965">
+        <v>33000119</v>
+      </c>
+      <c r="B965">
+        <v>3</v>
+      </c>
+      <c r="C965">
+        <v>4</v>
+      </c>
+      <c r="D965" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A966">
+        <v>33000120</v>
+      </c>
+      <c r="B966">
+        <v>3</v>
+      </c>
+      <c r="C966">
+        <v>4</v>
+      </c>
+      <c r="D966" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A967">
+        <v>33000121</v>
+      </c>
+      <c r="B967">
+        <v>3</v>
+      </c>
+      <c r="C967">
+        <v>4</v>
+      </c>
+      <c r="D967" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A968">
+        <v>33000122</v>
+      </c>
+      <c r="B968">
+        <v>3</v>
+      </c>
+      <c r="C968">
+        <v>4</v>
+      </c>
+      <c r="D968" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A969">
+        <v>33000123</v>
+      </c>
+      <c r="B969">
+        <v>3</v>
+      </c>
+      <c r="C969">
+        <v>4</v>
+      </c>
+      <c r="D969" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A970">
+        <v>33000124</v>
+      </c>
+      <c r="B970">
+        <v>3</v>
+      </c>
+      <c r="C970">
+        <v>4</v>
+      </c>
+      <c r="D970" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A971">
+        <v>33000125</v>
+      </c>
+      <c r="B971">
+        <v>3</v>
+      </c>
+      <c r="C971">
+        <v>4</v>
+      </c>
+      <c r="D971" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A972">
+        <v>33000126</v>
+      </c>
+      <c r="B972">
+        <v>3</v>
+      </c>
+      <c r="C972">
+        <v>4</v>
+      </c>
+      <c r="D972" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A973">
+        <v>33000127</v>
+      </c>
+      <c r="B973">
+        <v>3</v>
+      </c>
+      <c r="C973">
+        <v>4</v>
+      </c>
+      <c r="D973" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A974">
+        <v>33000128</v>
+      </c>
+      <c r="B974">
+        <v>3</v>
+      </c>
+      <c r="C974">
+        <v>4</v>
+      </c>
+      <c r="D974" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A975">
+        <v>33000129</v>
+      </c>
+      <c r="B975">
+        <v>3</v>
+      </c>
+      <c r="C975">
+        <v>4</v>
+      </c>
+      <c r="D975" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A976">
+        <v>33000130</v>
+      </c>
+      <c r="B976">
+        <v>3</v>
+      </c>
+      <c r="C976">
+        <v>4</v>
+      </c>
+      <c r="D976" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A977">
+        <v>33000131</v>
+      </c>
+      <c r="B977">
+        <v>3</v>
+      </c>
+      <c r="C977">
+        <v>4</v>
+      </c>
+      <c r="D977" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A978">
+        <v>33000132</v>
+      </c>
+      <c r="B978">
+        <v>3</v>
+      </c>
+      <c r="C978">
+        <v>4</v>
+      </c>
+      <c r="D978" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A979">
+        <v>33000133</v>
+      </c>
+      <c r="B979">
+        <v>3</v>
+      </c>
+      <c r="C979">
+        <v>4</v>
+      </c>
+      <c r="D979" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A980">
+        <v>33000134</v>
+      </c>
+      <c r="B980">
+        <v>3</v>
+      </c>
+      <c r="C980">
+        <v>4</v>
+      </c>
+      <c r="D980" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A981">
+        <v>33000135</v>
+      </c>
+      <c r="B981">
+        <v>3</v>
+      </c>
+      <c r="C981">
+        <v>4</v>
+      </c>
+      <c r="D981" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A982">
+        <v>33000136</v>
+      </c>
+      <c r="B982">
+        <v>3</v>
+      </c>
+      <c r="C982">
+        <v>4</v>
+      </c>
+      <c r="D982" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A983">
+        <v>33000137</v>
+      </c>
+      <c r="B983">
+        <v>3</v>
+      </c>
+      <c r="C983">
+        <v>4</v>
+      </c>
+      <c r="D983" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A984">
+        <v>33000138</v>
+      </c>
+      <c r="B984">
+        <v>3</v>
+      </c>
+      <c r="C984">
+        <v>4</v>
+      </c>
+      <c r="D984" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A985">
+        <v>33000139</v>
+      </c>
+      <c r="B985">
+        <v>3</v>
+      </c>
+      <c r="C985">
+        <v>4</v>
+      </c>
+      <c r="D985" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A986">
+        <v>33000140</v>
+      </c>
+      <c r="B986">
+        <v>3</v>
+      </c>
+      <c r="C986">
+        <v>4</v>
+      </c>
+      <c r="D986" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A987">
+        <v>33000141</v>
+      </c>
+      <c r="B987">
+        <v>3</v>
+      </c>
+      <c r="C987">
+        <v>4</v>
+      </c>
+      <c r="D987" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A988">
+        <v>33000142</v>
+      </c>
+      <c r="B988">
+        <v>3</v>
+      </c>
+      <c r="C988">
+        <v>4</v>
+      </c>
+      <c r="D988" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A989">
+        <v>33000143</v>
+      </c>
+      <c r="B989">
+        <v>3</v>
+      </c>
+      <c r="C989">
+        <v>4</v>
+      </c>
+      <c r="D989" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A990">
+        <v>33000144</v>
+      </c>
+      <c r="B990">
+        <v>3</v>
+      </c>
+      <c r="C990">
+        <v>4</v>
+      </c>
+      <c r="D990" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A991">
+        <v>33000145</v>
+      </c>
+      <c r="B991">
+        <v>3</v>
+      </c>
+      <c r="C991">
+        <v>4</v>
+      </c>
+      <c r="D991" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A992">
+        <v>33000146</v>
+      </c>
+      <c r="B992">
+        <v>3</v>
+      </c>
+      <c r="C992">
+        <v>4</v>
+      </c>
+      <c r="D992" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A993">
+        <v>33000147</v>
+      </c>
+      <c r="B993">
+        <v>3</v>
+      </c>
+      <c r="C993">
+        <v>4</v>
+      </c>
+      <c r="D993" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A994">
+        <v>33000148</v>
+      </c>
+      <c r="B994">
+        <v>3</v>
+      </c>
+      <c r="C994">
+        <v>4</v>
+      </c>
+      <c r="D994" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A995">
+        <v>33000149</v>
+      </c>
+      <c r="B995">
+        <v>3</v>
+      </c>
+      <c r="C995">
+        <v>4</v>
+      </c>
+      <c r="D995" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A996">
+        <v>33000150</v>
+      </c>
+      <c r="B996">
+        <v>3</v>
+      </c>
+      <c r="C996">
+        <v>4</v>
+      </c>
+      <c r="D996" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A997">
+        <v>33000151</v>
+      </c>
+      <c r="B997">
+        <v>3</v>
+      </c>
+      <c r="C997">
+        <v>4</v>
+      </c>
+      <c r="D997" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A998">
+        <v>33000152</v>
+      </c>
+      <c r="B998">
+        <v>3</v>
+      </c>
+      <c r="C998">
+        <v>4</v>
+      </c>
+      <c r="D998" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A999">
+        <v>33000153</v>
+      </c>
+      <c r="B999">
+        <v>3</v>
+      </c>
+      <c r="C999">
+        <v>4</v>
+      </c>
+      <c r="D999" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1000">
+        <v>33000154</v>
+      </c>
+      <c r="B1000">
+        <v>3</v>
+      </c>
+      <c r="C1000">
+        <v>4</v>
+      </c>
+      <c r="D1000" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1001">
+        <v>33000155</v>
+      </c>
+      <c r="B1001">
+        <v>3</v>
+      </c>
+      <c r="C1001">
+        <v>4</v>
+      </c>
+      <c r="D1001" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1002">
+        <v>33000156</v>
+      </c>
+      <c r="B1002">
+        <v>3</v>
+      </c>
+      <c r="C1002">
+        <v>4</v>
+      </c>
+      <c r="D1002" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1003">
+        <v>33000157</v>
+      </c>
+      <c r="B1003">
+        <v>3</v>
+      </c>
+      <c r="C1003">
+        <v>4</v>
+      </c>
+      <c r="D1003" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1004">
+        <v>33000158</v>
+      </c>
+      <c r="B1004">
+        <v>3</v>
+      </c>
+      <c r="C1004">
+        <v>4</v>
+      </c>
+      <c r="D1004" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1005">
+        <v>33000159</v>
+      </c>
+      <c r="B1005">
+        <v>3</v>
+      </c>
+      <c r="C1005">
+        <v>4</v>
+      </c>
+      <c r="D1005" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1006">
+        <v>33000160</v>
+      </c>
+      <c r="B1006">
+        <v>3</v>
+      </c>
+      <c r="C1006">
+        <v>4</v>
+      </c>
+      <c r="D1006" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1007">
+        <v>33000161</v>
+      </c>
+      <c r="B1007">
+        <v>3</v>
+      </c>
+      <c r="C1007">
+        <v>4</v>
+      </c>
+      <c r="D1007" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1008">
+        <v>33000162</v>
+      </c>
+      <c r="B1008">
+        <v>3</v>
+      </c>
+      <c r="C1008">
+        <v>4</v>
+      </c>
+      <c r="D1008" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1009">
+        <v>33000163</v>
+      </c>
+      <c r="B1009">
+        <v>3</v>
+      </c>
+      <c r="C1009">
+        <v>4</v>
+      </c>
+      <c r="D1009" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1010">
+        <v>33000164</v>
+      </c>
+      <c r="B1010">
+        <v>3</v>
+      </c>
+      <c r="C1010">
+        <v>4</v>
+      </c>
+      <c r="D1010" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1011">
+        <v>33000165</v>
+      </c>
+      <c r="B1011">
+        <v>3</v>
+      </c>
+      <c r="C1011">
+        <v>4</v>
+      </c>
+      <c r="D1011" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1012">
+        <v>33000166</v>
+      </c>
+      <c r="B1012">
+        <v>3</v>
+      </c>
+      <c r="C1012">
+        <v>4</v>
+      </c>
+      <c r="D1012" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1013">
+        <v>33000167</v>
+      </c>
+      <c r="B1013">
+        <v>3</v>
+      </c>
+      <c r="C1013">
+        <v>4</v>
+      </c>
+      <c r="D1013" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1014">
+        <v>33000168</v>
+      </c>
+      <c r="B1014">
+        <v>3</v>
+      </c>
+      <c r="C1014">
+        <v>4</v>
+      </c>
+      <c r="D1014" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1015">
+        <v>33000169</v>
+      </c>
+      <c r="B1015">
+        <v>3</v>
+      </c>
+      <c r="C1015">
+        <v>4</v>
+      </c>
+      <c r="D1015" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1016">
+        <v>33000170</v>
+      </c>
+      <c r="B1016">
+        <v>3</v>
+      </c>
+      <c r="C1016">
+        <v>4</v>
+      </c>
+      <c r="D1016" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1017">
+        <v>33000171</v>
+      </c>
+      <c r="B1017">
+        <v>3</v>
+      </c>
+      <c r="C1017">
+        <v>4</v>
+      </c>
+      <c r="D1017" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1018">
+        <v>33000172</v>
+      </c>
+      <c r="B1018">
+        <v>3</v>
+      </c>
+      <c r="C1018">
+        <v>4</v>
+      </c>
+      <c r="D1018" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1019">
+        <v>33000173</v>
+      </c>
+      <c r="B1019">
+        <v>3</v>
+      </c>
+      <c r="C1019">
+        <v>4</v>
+      </c>
+      <c r="D1019" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1020">
+        <v>33000174</v>
+      </c>
+      <c r="B1020">
+        <v>3</v>
+      </c>
+      <c r="C1020">
+        <v>4</v>
+      </c>
+      <c r="D1020" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1021">
+        <v>33000175</v>
+      </c>
+      <c r="B1021">
+        <v>3</v>
+      </c>
+      <c r="C1021">
+        <v>4</v>
+      </c>
+      <c r="D1021" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1022">
+        <v>33000176</v>
+      </c>
+      <c r="B1022">
+        <v>3</v>
+      </c>
+      <c r="C1022">
+        <v>4</v>
+      </c>
+      <c r="D1022" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1023">
+        <v>33000177</v>
+      </c>
+      <c r="B1023">
+        <v>3</v>
+      </c>
+      <c r="C1023">
+        <v>4</v>
+      </c>
+      <c r="D1023" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1024">
+        <v>33000178</v>
+      </c>
+      <c r="B1024">
+        <v>3</v>
+      </c>
+      <c r="C1024">
+        <v>4</v>
+      </c>
+      <c r="D1024" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1025">
+        <v>33000179</v>
+      </c>
+      <c r="B1025">
+        <v>3</v>
+      </c>
+      <c r="C1025">
+        <v>4</v>
+      </c>
+      <c r="D1025" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1026">
+        <v>33000180</v>
+      </c>
+      <c r="B1026">
+        <v>3</v>
+      </c>
+      <c r="C1026">
+        <v>4</v>
+      </c>
+      <c r="D1026" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1027">
+        <v>33000181</v>
+      </c>
+      <c r="B1027">
+        <v>3</v>
+      </c>
+      <c r="C1027">
+        <v>4</v>
+      </c>
+      <c r="D1027" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1028">
+        <v>33000182</v>
+      </c>
+      <c r="B1028">
+        <v>3</v>
+      </c>
+      <c r="C1028">
+        <v>4</v>
+      </c>
+      <c r="D1028" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1029">
+        <v>33000183</v>
+      </c>
+      <c r="B1029">
+        <v>3</v>
+      </c>
+      <c r="C1029">
+        <v>4</v>
+      </c>
+      <c r="D1029" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1030">
+        <v>33000184</v>
+      </c>
+      <c r="B1030">
+        <v>3</v>
+      </c>
+      <c r="C1030">
+        <v>4</v>
+      </c>
+      <c r="D1030" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1031">
+        <v>33000185</v>
+      </c>
+      <c r="B1031">
+        <v>3</v>
+      </c>
+      <c r="C1031">
+        <v>4</v>
+      </c>
+      <c r="D1031" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1032">
+        <v>33000186</v>
+      </c>
+      <c r="B1032">
+        <v>3</v>
+      </c>
+      <c r="C1032">
+        <v>4</v>
+      </c>
+      <c r="D1032" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1033">
+        <v>33000187</v>
+      </c>
+      <c r="B1033">
+        <v>3</v>
+      </c>
+      <c r="C1033">
+        <v>4</v>
+      </c>
+      <c r="D1033" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1034">
+        <v>33000188</v>
+      </c>
+      <c r="B1034">
+        <v>3</v>
+      </c>
+      <c r="C1034">
+        <v>4</v>
+      </c>
+      <c r="D1034" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1035">
+        <v>33000189</v>
+      </c>
+      <c r="B1035">
+        <v>3</v>
+      </c>
+      <c r="C1035">
+        <v>4</v>
+      </c>
+      <c r="D1035" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1036">
+        <v>33000190</v>
+      </c>
+      <c r="B1036">
+        <v>3</v>
+      </c>
+      <c r="C1036">
+        <v>4</v>
+      </c>
+      <c r="D1036" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1037">
+        <v>33000191</v>
+      </c>
+      <c r="B1037">
+        <v>3</v>
+      </c>
+      <c r="C1037">
+        <v>4</v>
+      </c>
+      <c r="D1037" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1038">
+        <v>33000192</v>
+      </c>
+      <c r="B1038">
+        <v>3</v>
+      </c>
+      <c r="C1038">
+        <v>4</v>
+      </c>
+      <c r="D1038" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1039">
+        <v>33000193</v>
+      </c>
+      <c r="B1039">
+        <v>3</v>
+      </c>
+      <c r="C1039">
+        <v>4</v>
+      </c>
+      <c r="D1039" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1040">
+        <v>33000194</v>
+      </c>
+      <c r="B1040">
+        <v>3</v>
+      </c>
+      <c r="C1040">
+        <v>4</v>
+      </c>
+      <c r="D1040" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1041">
+        <v>33000195</v>
+      </c>
+      <c r="B1041">
+        <v>3</v>
+      </c>
+      <c r="C1041">
+        <v>4</v>
+      </c>
+      <c r="D1041" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1042">
+        <v>33000196</v>
+      </c>
+      <c r="B1042">
+        <v>3</v>
+      </c>
+      <c r="C1042">
+        <v>4</v>
+      </c>
+      <c r="D1042" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1043">
+        <v>33000197</v>
+      </c>
+      <c r="B1043">
+        <v>3</v>
+      </c>
+      <c r="C1043">
+        <v>4</v>
+      </c>
+      <c r="D1043" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1044">
+        <v>33000198</v>
+      </c>
+      <c r="B1044">
+        <v>3</v>
+      </c>
+      <c r="C1044">
+        <v>4</v>
+      </c>
+      <c r="D1044" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1045">
+        <v>33000199</v>
+      </c>
+      <c r="B1045">
+        <v>3</v>
+      </c>
+      <c r="C1045">
+        <v>4</v>
+      </c>
+      <c r="D1045" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1046">
+        <v>33000200</v>
+      </c>
+      <c r="B1046">
+        <v>3</v>
+      </c>
+      <c r="C1046">
+        <v>4</v>
+      </c>
+      <c r="D1046" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1047">
+        <v>3300001</v>
+      </c>
+      <c r="B1047">
+        <v>3</v>
+      </c>
+      <c r="C1047">
+        <v>4</v>
+      </c>
+      <c r="D1047" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1048">
+        <v>3300002</v>
+      </c>
+      <c r="B1048">
+        <v>3</v>
+      </c>
+      <c r="C1048">
+        <v>4</v>
+      </c>
+      <c r="D1048" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1049">
+        <v>3300003</v>
+      </c>
+      <c r="B1049">
+        <v>3</v>
+      </c>
+      <c r="C1049">
+        <v>4</v>
+      </c>
+      <c r="D1049" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1050">
+        <v>3300004</v>
+      </c>
+      <c r="B1050">
+        <v>3</v>
+      </c>
+      <c r="C1050">
+        <v>4</v>
+      </c>
+      <c r="D1050" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1051">
+        <v>3300005</v>
+      </c>
+      <c r="B1051">
+        <v>3</v>
+      </c>
+      <c r="C1051">
+        <v>4</v>
+      </c>
+      <c r="D1051" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1052">
+        <v>3300006</v>
+      </c>
+      <c r="B1052">
+        <v>3</v>
+      </c>
+      <c r="C1052">
+        <v>4</v>
+      </c>
+      <c r="D1052" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1053">
+        <v>3300007</v>
+      </c>
+      <c r="B1053">
+        <v>3</v>
+      </c>
+      <c r="C1053">
+        <v>4</v>
+      </c>
+      <c r="D1053" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1054">
+        <v>3300008</v>
+      </c>
+      <c r="B1054">
+        <v>3</v>
+      </c>
+      <c r="C1054">
+        <v>4</v>
+      </c>
+      <c r="D1054" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1055">
+        <v>3300009</v>
+      </c>
+      <c r="B1055">
+        <v>3</v>
+      </c>
+      <c r="C1055">
+        <v>4</v>
+      </c>
+      <c r="D1055" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1056">
+        <v>33000010</v>
+      </c>
+      <c r="B1056">
+        <v>3</v>
+      </c>
+      <c r="C1056">
+        <v>4</v>
+      </c>
+      <c r="D1056" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1057">
+        <v>33000011</v>
+      </c>
+      <c r="B1057">
+        <v>3</v>
+      </c>
+      <c r="C1057">
+        <v>4</v>
+      </c>
+      <c r="D1057" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1058">
+        <v>33000012</v>
+      </c>
+      <c r="B1058">
+        <v>3</v>
+      </c>
+      <c r="C1058">
+        <v>4</v>
+      </c>
+      <c r="D1058" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1059">
+        <v>33000013</v>
+      </c>
+      <c r="B1059">
+        <v>3</v>
+      </c>
+      <c r="C1059">
+        <v>4</v>
+      </c>
+      <c r="D1059" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1060">
+        <v>33000014</v>
+      </c>
+      <c r="B1060">
+        <v>3</v>
+      </c>
+      <c r="C1060">
+        <v>4</v>
+      </c>
+      <c r="D1060" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1061">
+        <v>33000015</v>
+      </c>
+      <c r="B1061">
+        <v>3</v>
+      </c>
+      <c r="C1061">
+        <v>4</v>
+      </c>
+      <c r="D1061" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1062">
+        <v>33000016</v>
+      </c>
+      <c r="B1062">
+        <v>3</v>
+      </c>
+      <c r="C1062">
+        <v>4</v>
+      </c>
+      <c r="D1062" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1063">
+        <v>33000017</v>
+      </c>
+      <c r="B1063">
+        <v>3</v>
+      </c>
+      <c r="C1063">
+        <v>4</v>
+      </c>
+      <c r="D1063" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1064">
+        <v>33000018</v>
+      </c>
+      <c r="B1064">
+        <v>3</v>
+      </c>
+      <c r="C1064">
+        <v>4</v>
+      </c>
+      <c r="D1064" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1065">
+        <v>33000019</v>
+      </c>
+      <c r="B1065">
+        <v>3</v>
+      </c>
+      <c r="C1065">
+        <v>4</v>
+      </c>
+      <c r="D1065" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1066">
+        <v>33000020</v>
+      </c>
+      <c r="B1066">
+        <v>3</v>
+      </c>
+      <c r="C1066">
+        <v>4</v>
+      </c>
+      <c r="D1066" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1067">
+        <v>33000021</v>
+      </c>
+      <c r="B1067">
+        <v>3</v>
+      </c>
+      <c r="C1067">
+        <v>4</v>
+      </c>
+      <c r="D1067" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1068">
+        <v>33000022</v>
+      </c>
+      <c r="B1068">
+        <v>3</v>
+      </c>
+      <c r="C1068">
+        <v>4</v>
+      </c>
+      <c r="D1068" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1069">
+        <v>33000023</v>
+      </c>
+      <c r="B1069">
+        <v>3</v>
+      </c>
+      <c r="C1069">
+        <v>4</v>
+      </c>
+      <c r="D1069" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1070">
+        <v>33000024</v>
+      </c>
+      <c r="B1070">
+        <v>3</v>
+      </c>
+      <c r="C1070">
+        <v>4</v>
+      </c>
+      <c r="D1070" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1071">
+        <v>33000025</v>
+      </c>
+      <c r="B1071">
+        <v>3</v>
+      </c>
+      <c r="C1071">
+        <v>4</v>
+      </c>
+      <c r="D1071" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1072">
+        <v>33000026</v>
+      </c>
+      <c r="B1072">
+        <v>3</v>
+      </c>
+      <c r="C1072">
+        <v>4</v>
+      </c>
+      <c r="D1072" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1073">
+        <v>33000027</v>
+      </c>
+      <c r="B1073">
+        <v>3</v>
+      </c>
+      <c r="C1073">
+        <v>4</v>
+      </c>
+      <c r="D1073" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1074">
+        <v>33000028</v>
+      </c>
+      <c r="B1074">
+        <v>3</v>
+      </c>
+      <c r="C1074">
+        <v>4</v>
+      </c>
+      <c r="D1074" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1075">
+        <v>33000029</v>
+      </c>
+      <c r="B1075">
+        <v>3</v>
+      </c>
+      <c r="C1075">
+        <v>4</v>
+      </c>
+      <c r="D1075" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1076">
+        <v>33000030</v>
+      </c>
+      <c r="B1076">
+        <v>3</v>
+      </c>
+      <c r="C1076">
+        <v>4</v>
+      </c>
+      <c r="D1076" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1077">
+        <v>33000031</v>
+      </c>
+      <c r="B1077">
+        <v>3</v>
+      </c>
+      <c r="C1077">
+        <v>4</v>
+      </c>
+      <c r="D1077" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1078">
+        <v>33000032</v>
+      </c>
+      <c r="B1078">
+        <v>3</v>
+      </c>
+      <c r="C1078">
+        <v>4</v>
+      </c>
+      <c r="D1078" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1079">
+        <v>33000033</v>
+      </c>
+      <c r="B1079">
+        <v>3</v>
+      </c>
+      <c r="C1079">
+        <v>4</v>
+      </c>
+      <c r="D1079" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1080">
+        <v>33000034</v>
+      </c>
+      <c r="B1080">
+        <v>3</v>
+      </c>
+      <c r="C1080">
+        <v>4</v>
+      </c>
+      <c r="D1080" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1081">
+        <v>33000035</v>
+      </c>
+      <c r="B1081">
+        <v>3</v>
+      </c>
+      <c r="C1081">
+        <v>4</v>
+      </c>
+      <c r="D1081" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1082">
+        <v>33000036</v>
+      </c>
+      <c r="B1082">
+        <v>3</v>
+      </c>
+      <c r="C1082">
+        <v>4</v>
+      </c>
+      <c r="D1082" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1083">
+        <v>33000037</v>
+      </c>
+      <c r="B1083">
+        <v>3</v>
+      </c>
+      <c r="C1083">
+        <v>4</v>
+      </c>
+      <c r="D1083" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1084">
+        <v>33000038</v>
+      </c>
+      <c r="B1084">
+        <v>3</v>
+      </c>
+      <c r="C1084">
+        <v>4</v>
+      </c>
+      <c r="D1084" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1085">
+        <v>33000039</v>
+      </c>
+      <c r="B1085">
+        <v>3</v>
+      </c>
+      <c r="C1085">
+        <v>4</v>
+      </c>
+      <c r="D1085" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1086">
+        <v>33000040</v>
+      </c>
+      <c r="B1086">
+        <v>3</v>
+      </c>
+      <c r="C1086">
+        <v>4</v>
+      </c>
+      <c r="D1086" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D1087" s="8"/>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D1088" s="8"/>
+    </row>
+    <row r="1089" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1089" s="8"/>
+    </row>
+    <row r="1090" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1090" s="8"/>
+    </row>
+    <row r="1091" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1091" s="8"/>
+    </row>
+    <row r="1092" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1092" s="8"/>
+    </row>
+    <row r="1093" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1093" s="8"/>
+    </row>
+    <row r="1094" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1094" s="8"/>
+    </row>
+    <row r="1095" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1095" s="8"/>
+    </row>
+    <row r="1096" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1096" s="8"/>
+    </row>
+    <row r="1097" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1097" s="8"/>
+    </row>
+    <row r="1098" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1098" s="8"/>
+    </row>
+    <row r="1099" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1099" s="8"/>
+    </row>
+    <row r="1100" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1100" s="8"/>
+    </row>
+    <row r="1101" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1101" s="8"/>
+    </row>
+    <row r="1102" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1102" s="8"/>
+    </row>
+    <row r="1103" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1103" s="8"/>
+    </row>
+    <row r="1104" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1104" s="8"/>
+    </row>
+    <row r="1105" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1105" s="8"/>
+    </row>
+    <row r="1106" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1106" s="8"/>
+    </row>
+    <row r="1107" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1107" s="8"/>
+    </row>
+    <row r="1108" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1108" s="8"/>
+    </row>
+    <row r="1109" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1109" s="8"/>
+    </row>
+    <row r="1110" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1110" s="8"/>
+    </row>
+    <row r="1111" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1111" s="8"/>
+    </row>
+    <row r="1112" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1112" s="8"/>
+    </row>
+    <row r="1113" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1113" s="8"/>
+    </row>
+    <row r="1114" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1114" s="8"/>
+    </row>
+    <row r="1115" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1115" s="8"/>
+    </row>
+    <row r="1116" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1116" s="8"/>
+    </row>
+    <row r="1117" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1117" s="8"/>
+    </row>
+    <row r="1118" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1118" s="8"/>
+    </row>
+    <row r="1119" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1119" s="8"/>
+    </row>
+    <row r="1120" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1120" s="8"/>
+    </row>
+    <row r="1121" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1121" s="8"/>
+    </row>
+    <row r="1122" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1122" s="8"/>
+    </row>
+    <row r="1123" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1123" s="8"/>
+    </row>
+    <row r="1124" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1124" s="8"/>
+    </row>
+    <row r="1125" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1125" s="8"/>
+    </row>
+    <row r="1126" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1126" s="8"/>
+    </row>
+    <row r="1127" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1127" s="8"/>
+    </row>
+    <row r="1128" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1128" s="8"/>
+    </row>
+    <row r="1129" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1129" s="8"/>
+    </row>
+    <row r="1130" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1130" s="8"/>
+    </row>
+    <row r="1131" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1131" s="8"/>
+    </row>
+    <row r="1132" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1132" s="8"/>
+    </row>
+    <row r="1133" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1133" s="8"/>
+    </row>
+    <row r="1134" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1134" s="8"/>
+    </row>
+    <row r="1135" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1135" s="8"/>
+    </row>
+    <row r="1136" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1136" s="8"/>
+    </row>
+    <row r="1137" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1137" s="8"/>
+    </row>
+    <row r="1138" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1138" s="8"/>
+    </row>
+    <row r="1139" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1139" s="8"/>
+    </row>
+    <row r="1140" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1140" s="8"/>
+    </row>
+    <row r="1141" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1141" s="8"/>
+    </row>
+    <row r="1142" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1142" s="8"/>
+    </row>
+    <row r="1143" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1143" s="8"/>
+    </row>
+    <row r="1144" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1144" s="8"/>
+    </row>
+    <row r="1145" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1145" s="8"/>
+    </row>
+    <row r="1146" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1146" s="8"/>
+    </row>
+    <row r="1147" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1147" s="8"/>
+    </row>
+    <row r="1148" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1148" s="8"/>
+    </row>
+    <row r="1149" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1149" s="8"/>
+    </row>
+    <row r="1150" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1150" s="8"/>
+    </row>
+    <row r="1151" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1151" s="8"/>
+    </row>
+    <row r="1152" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1152" s="8"/>
+    </row>
+    <row r="1153" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1153" s="8"/>
+    </row>
+    <row r="1154" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1154" s="8"/>
+    </row>
+    <row r="1155" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1155" s="8"/>
+    </row>
+    <row r="1156" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1156" s="8"/>
+    </row>
+    <row r="1157" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1157" s="8"/>
+    </row>
+    <row r="1158" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1158" s="8"/>
+    </row>
+    <row r="1159" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1159" s="8"/>
+    </row>
+    <row r="1160" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1160" s="8"/>
+    </row>
+    <row r="1161" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1161" s="8"/>
+    </row>
+    <row r="1162" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1162" s="8"/>
+    </row>
+    <row r="1163" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1163" s="8"/>
+    </row>
+    <row r="1164" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1164" s="8"/>
+    </row>
+    <row r="1165" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1165" s="8"/>
+    </row>
+    <row r="1166" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1166" s="8"/>
+    </row>
+    <row r="1167" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1167" s="8"/>
+    </row>
+    <row r="1168" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1168" s="8"/>
+    </row>
+    <row r="1169" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1169" s="8"/>
+    </row>
+    <row r="1170" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1170" s="8"/>
+    </row>
+    <row r="1171" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1171" s="8"/>
+    </row>
+    <row r="1172" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1172" s="8"/>
+    </row>
+    <row r="1173" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1173" s="8"/>
+    </row>
+    <row r="1174" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1174" s="8"/>
+    </row>
+    <row r="1175" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1175" s="8"/>
+    </row>
+    <row r="1176" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1176" s="8"/>
+    </row>
+    <row r="1177" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1177" s="8"/>
+    </row>
+    <row r="1178" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1178" s="8"/>
+    </row>
+    <row r="1179" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1179" s="8"/>
+    </row>
+    <row r="1180" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1180" s="8"/>
+    </row>
+    <row r="1181" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1181" s="8"/>
+    </row>
+    <row r="1182" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1182" s="8"/>
+    </row>
+    <row r="1183" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1183" s="8"/>
+    </row>
+    <row r="1184" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1184" s="8"/>
+    </row>
+    <row r="1185" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1185" s="8"/>
+    </row>
+    <row r="1186" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1186" s="8"/>
+    </row>
+    <row r="1187" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1187" s="8"/>
+    </row>
+    <row r="1188" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1188" s="8"/>
+    </row>
+    <row r="1189" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1189" s="8"/>
+    </row>
+    <row r="1190" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1190" s="8"/>
+    </row>
+    <row r="1191" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1191" s="8"/>
+    </row>
+    <row r="1192" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1192" s="8"/>
+    </row>
+    <row r="1193" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1193" s="8"/>
+    </row>
+    <row r="1194" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1194" s="8"/>
+    </row>
+    <row r="1195" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1195" s="8"/>
+    </row>
+    <row r="1196" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1196" s="8"/>
+    </row>
+    <row r="1197" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1197" s="8"/>
+    </row>
+    <row r="1198" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1198" s="8"/>
+    </row>
+    <row r="1199" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1199" s="8"/>
+    </row>
+    <row r="1200" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1200" s="8"/>
+    </row>
+    <row r="1201" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1201" s="8"/>
+    </row>
+    <row r="1202" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1202" s="8"/>
+    </row>
+    <row r="1203" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1203" s="8"/>
+    </row>
+    <row r="1204" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1204" s="8"/>
+    </row>
+    <row r="1205" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1205" s="8"/>
+    </row>
+    <row r="1206" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1206" s="8"/>
+    </row>
+    <row r="1207" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1207" s="8"/>
+    </row>
+    <row r="1208" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1208" s="8"/>
+    </row>
+    <row r="1209" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1209" s="8"/>
+    </row>
+    <row r="1210" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1210" s="8"/>
+    </row>
+    <row r="1211" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1211" s="8"/>
+    </row>
+    <row r="1212" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1212" s="8"/>
+    </row>
+    <row r="1213" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1213" s="8"/>
+    </row>
+    <row r="1214" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1214" s="8"/>
+    </row>
+    <row r="1215" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1215" s="8"/>
+    </row>
+    <row r="1216" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1216" s="8"/>
+    </row>
+    <row r="1217" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1217" s="8"/>
+    </row>
+    <row r="1218" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1218" s="8"/>
+    </row>
+    <row r="1219" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1219" s="8"/>
+    </row>
+    <row r="1220" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1220" s="8"/>
+    </row>
+    <row r="1221" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1221" s="8"/>
+    </row>
+    <row r="1222" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1222" s="8"/>
+    </row>
+    <row r="1223" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1223" s="8"/>
+    </row>
+    <row r="1224" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1224" s="8"/>
+    </row>
+    <row r="1225" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1225" s="8"/>
+    </row>
+    <row r="1226" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1226" s="8"/>
+    </row>
+    <row r="1227" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1227" s="8"/>
+    </row>
+    <row r="1228" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1228" s="8"/>
+    </row>
+    <row r="1229" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1229" s="8"/>
+    </row>
+    <row r="1230" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1230" s="8"/>
+    </row>
+    <row r="1231" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1231" s="8"/>
+    </row>
+    <row r="1232" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1232" s="8"/>
+    </row>
+    <row r="1233" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1233" s="8"/>
+    </row>
+    <row r="1234" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1234" s="8"/>
+    </row>
+    <row r="1235" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1235" s="8"/>
+    </row>
+    <row r="1236" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1236" s="8"/>
+    </row>
+    <row r="1237" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1237" s="8"/>
+    </row>
+    <row r="1238" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1238" s="8"/>
+    </row>
+    <row r="1239" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1239" s="8"/>
+    </row>
+    <row r="1240" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1240" s="8"/>
+    </row>
+    <row r="1241" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1241" s="8"/>
+    </row>
+    <row r="1242" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1242" s="8"/>
+    </row>
+    <row r="1243" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1243" s="8"/>
+    </row>
+    <row r="1244" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1244" s="8"/>
+    </row>
+    <row r="1245" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1245" s="8"/>
+    </row>
+    <row r="1246" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1246" s="8"/>
+    </row>
+    <row r="1247" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1247" s="8"/>
+    </row>
+    <row r="1248" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1248" s="8"/>
+    </row>
+    <row r="1249" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1249" s="8"/>
+    </row>
+    <row r="1250" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1250" s="8"/>
+    </row>
+    <row r="1251" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1251" s="8"/>
+    </row>
+    <row r="1252" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1252" s="8"/>
+    </row>
+    <row r="1253" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1253" s="8"/>
+    </row>
+    <row r="1254" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1254" s="8"/>
+    </row>
+    <row r="1255" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1255" s="8"/>
+    </row>
+    <row r="1256" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1256" s="8"/>
+    </row>
+    <row r="1257" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1257" s="8"/>
+    </row>
+    <row r="1258" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1258" s="8"/>
+    </row>
+    <row r="1259" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1259" s="8"/>
+    </row>
+    <row r="1260" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1260" s="8"/>
+    </row>
+    <row r="1261" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1261" s="8"/>
+    </row>
+    <row r="1262" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1262" s="8"/>
+    </row>
+    <row r="1263" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1263" s="8"/>
+    </row>
+    <row r="1264" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1264" s="8"/>
+    </row>
+    <row r="1265" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1265" s="8"/>
+    </row>
+    <row r="1266" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1266" s="8"/>
+    </row>
+    <row r="1267" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1267" s="8"/>
+    </row>
+    <row r="1268" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1268" s="8"/>
+    </row>
+    <row r="1269" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1269" s="8"/>
+    </row>
+    <row r="1270" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1270" s="8"/>
+    </row>
+    <row r="1271" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1271" s="8"/>
+    </row>
+    <row r="1272" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1272" s="8"/>
+    </row>
+    <row r="1273" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1273" s="8"/>
+    </row>
+    <row r="1274" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1274" s="8"/>
+    </row>
+    <row r="1275" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1275" s="8"/>
+    </row>
+    <row r="1276" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1276" s="8"/>
+    </row>
+    <row r="1277" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1277" s="8"/>
+    </row>
+    <row r="1278" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1278" s="8"/>
+    </row>
+    <row r="1279" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1279" s="8"/>
+    </row>
+    <row r="1280" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1280" s="8"/>
+    </row>
+    <row r="1281" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1281" s="8"/>
+    </row>
+    <row r="1282" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1282" s="8"/>
+    </row>
+    <row r="1283" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1283" s="8"/>
+    </row>
+    <row r="1284" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1284" s="8"/>
+    </row>
+    <row r="1285" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1285" s="8"/>
+    </row>
+    <row r="1286" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1286" s="8"/>
+    </row>
+    <row r="1287" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1287" s="8"/>
+    </row>
+    <row r="1288" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1288" s="8"/>
+    </row>
+    <row r="1289" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1289" s="8"/>
+    </row>
+    <row r="1290" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1290" s="8"/>
+    </row>
+    <row r="1291" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1291" s="8"/>
+    </row>
+    <row r="1292" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1292" s="8"/>
+    </row>
+    <row r="1293" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1293" s="8"/>
+    </row>
+    <row r="1294" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1294" s="8"/>
+    </row>
+    <row r="1295" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1295" s="8"/>
+    </row>
+    <row r="1296" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1296" s="8"/>
+    </row>
+    <row r="1297" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1297" s="8"/>
+    </row>
+    <row r="1298" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1298" s="8"/>
+    </row>
+    <row r="1299" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1299" s="8"/>
+    </row>
+    <row r="1300" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1300" s="8"/>
+    </row>
+    <row r="1301" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1301" s="8"/>
+    </row>
+    <row r="1302" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1302" s="8"/>
+    </row>
+    <row r="1303" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1303" s="8"/>
+    </row>
+    <row r="1304" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1304" s="8"/>
+    </row>
+    <row r="1305" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1305" s="8"/>
+    </row>
+    <row r="1306" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1306" s="8"/>
+    </row>
+    <row r="1307" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1307" s="8"/>
+    </row>
+    <row r="1308" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1308" s="8"/>
+    </row>
+    <row r="1309" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1309" s="8"/>
+    </row>
+    <row r="1310" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1310" s="8"/>
+    </row>
+    <row r="1311" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1311" s="8"/>
+    </row>
+    <row r="1312" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1312" s="8"/>
+    </row>
+    <row r="1313" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1313" s="8"/>
+    </row>
+    <row r="1314" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1314" s="8"/>
+    </row>
+    <row r="1315" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1315" s="8"/>
+    </row>
+    <row r="1316" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1316" s="8"/>
+    </row>
+    <row r="1317" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1317" s="8"/>
+    </row>
+    <row r="1318" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1318" s="8"/>
+    </row>
+    <row r="1319" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1319" s="8"/>
+    </row>
+    <row r="1320" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1320" s="8"/>
+    </row>
+    <row r="1321" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1321" s="8"/>
+    </row>
+    <row r="1322" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1322" s="8"/>
+    </row>
+    <row r="1323" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1323" s="8"/>
+    </row>
+    <row r="1324" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1324" s="8"/>
+    </row>
+    <row r="1325" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1325" s="8"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G842">
     <sortCondition ref="B2:B842"/>
